--- a/VL.Research/XMLConfig/YLJGZCECSQKTJJDBBArea/列表.xlsx
+++ b/VL.Research/XMLConfig/YLJGZCECSQKTJJDBBArea/列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="25290" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">表5    医疗机构早产儿出生情况统计季度报表             </t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">                         填报单位（签章）        </t>
+  </si>
+  <si>
+    <t>@DataUser_FuWuJGMC</t>
   </si>
 </sst>
 </file>
@@ -117,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -191,22 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +211,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -234,34 +231,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,8 +267,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,41 +298,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -342,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,11 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +600,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +636,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,26 +667,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,138 +695,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -869,10 +872,16 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1197,7 +1206,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -1315,10 +1324,10 @@
       <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1480,14 +1489,16 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="G16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -1498,7 +1509,8 @@
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
